--- a/mbs-perturbation/chatty/randomForest/nearmiss/chatty-randomForest-nearmiss-results.xlsx
+++ b/mbs-perturbation/chatty/randomForest/nearmiss/chatty-randomForest-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="6">
@@ -546,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9333333333333332</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.96</v>
+        <v>0.5557142857142858</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.8240000000000001</v>
       </c>
     </row>
   </sheetData>
